--- a/notebooks/assets/test/keras10_1.xlsx
+++ b/notebooks/assets/test/keras10_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.265</v>
+        <v>0.994</v>
       </c>
       <c r="C2" t="n">
-        <v>1.546</v>
+        <v>1.05</v>
       </c>
       <c r="D2" t="n">
-        <v>1.18</v>
+        <v>1.157</v>
       </c>
       <c r="E2" t="n">
-        <v>1.168</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1.725</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="3">
@@ -489,85 +489,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.877</v>
+        <v>1.515</v>
       </c>
       <c r="C3" t="n">
-        <v>4.603</v>
+        <v>2.115</v>
       </c>
       <c r="D3" t="n">
-        <v>2.484</v>
+        <v>2.511</v>
       </c>
       <c r="E3" t="n">
-        <v>2.354</v>
+        <v>0.541</v>
       </c>
       <c r="F3" t="n">
-        <v>4.644</v>
+        <v>3.049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>mean Y-Test</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.33</v>
+        <v>0.761</v>
       </c>
       <c r="C4" t="n">
-        <v>17.005</v>
+        <v>0.801</v>
       </c>
       <c r="D4" t="n">
-        <v>18.237</v>
+        <v>0.877</v>
       </c>
       <c r="E4" t="n">
-        <v>12.946</v>
+        <v>0.729</v>
       </c>
       <c r="F4" t="n">
-        <v>29.871</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>mean Y-predicted</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>18.74200057983398</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.0939998626709</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.37400054931641</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.91699981689453</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30.67099952697754</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.295</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8</v>
+        <v>0.894</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/keras10_1.xlsx
+++ b/notebooks/assets/test/keras10_1.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>grid_0_1_1007_1017_2021.gpkg</t>
+          <t>grid_0_1_1007_1014_2021.gpkg</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>1.351</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05</v>
+        <v>2.109</v>
       </c>
       <c r="D2" t="n">
-        <v>1.157</v>
+        <v>1.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1.352</v>
+        <v>2.413</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.515</v>
+        <v>2.732</v>
       </c>
       <c r="C3" t="n">
-        <v>2.115</v>
+        <v>7.924</v>
       </c>
       <c r="D3" t="n">
-        <v>2.511</v>
+        <v>2.231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.541</v>
+        <v>1.347</v>
       </c>
       <c r="F3" t="n">
-        <v>3.049</v>
+        <v>9.840999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.761</v>
+        <v>0.504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.801</v>
+        <v>0.196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.877</v>
+        <v>0.697</v>
       </c>
       <c r="E4" t="n">
-        <v>0.729</v>
+        <v>0.215</v>
       </c>
       <c r="F4" t="n">
-        <v>0.894</v>
+        <v>0.617</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/keras10_1.xlsx
+++ b/notebooks/assets/test/keras10_1.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.351</v>
+        <v>2.018</v>
       </c>
       <c r="C2" t="n">
-        <v>2.109</v>
+        <v>1.842</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>1.004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.797</v>
       </c>
       <c r="F2" t="n">
-        <v>2.413</v>
+        <v>1.999</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.732</v>
+        <v>6.913</v>
       </c>
       <c r="C3" t="n">
-        <v>7.924</v>
+        <v>5.198</v>
       </c>
       <c r="D3" t="n">
-        <v>2.231</v>
+        <v>1.731</v>
       </c>
       <c r="E3" t="n">
-        <v>1.347</v>
+        <v>1.073</v>
       </c>
       <c r="F3" t="n">
-        <v>9.840999999999999</v>
+        <v>6.295</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.504</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196</v>
+        <v>0.511</v>
       </c>
       <c r="D4" t="n">
-        <v>0.697</v>
+        <v>0.678</v>
       </c>
       <c r="E4" t="n">
-        <v>0.215</v>
+        <v>0.498</v>
       </c>
       <c r="F4" t="n">
-        <v>0.617</v>
+        <v>0.785</v>
       </c>
     </row>
   </sheetData>
